--- a/Code/Results/Cases/Case_4_131/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_131/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.133026081575395</v>
+        <v>1.270414358554376</v>
       </c>
       <c r="C2">
-        <v>0.2890491044141754</v>
+        <v>0.1870054823450715</v>
       </c>
       <c r="D2">
-        <v>0.2486789076128275</v>
+        <v>0.5166861284057234</v>
       </c>
       <c r="E2">
-        <v>0.06235445181990773</v>
+        <v>0.1768352350388191</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.5631600470594549</v>
+        <v>1.006974040763296</v>
       </c>
       <c r="H2">
-        <v>0.4256885351209831</v>
+        <v>1.030110265252901</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.04642991517293638</v>
+        <v>0.08044269317985986</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.2246987013333097</v>
+        <v>0.3672628403549325</v>
       </c>
       <c r="M2">
-        <v>0.4069022685906774</v>
+        <v>0.3377522682235536</v>
       </c>
       <c r="N2">
-        <v>0.8988009719750494</v>
+        <v>1.682596187459559</v>
       </c>
       <c r="O2">
-        <v>2.032675036884939</v>
+        <v>4.128106805779993</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.860106866716052</v>
+        <v>1.194097904004337</v>
       </c>
       <c r="C3">
-        <v>0.2663878897638625</v>
+        <v>0.1793620625467014</v>
       </c>
       <c r="D3">
-        <v>0.2376048342213863</v>
+        <v>0.5168703469153542</v>
       </c>
       <c r="E3">
-        <v>0.06343077170865996</v>
+        <v>0.1779761309630246</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.5373063043911799</v>
+        <v>1.008550174120145</v>
       </c>
       <c r="H3">
-        <v>0.42004489889284</v>
+        <v>1.035315464045851</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.04545903636046944</v>
+        <v>0.08013365584731602</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.2062658418210219</v>
+        <v>0.36401133398887</v>
       </c>
       <c r="M3">
-        <v>0.3578591548177457</v>
+        <v>0.3249708236499345</v>
       </c>
       <c r="N3">
-        <v>0.9317677457981546</v>
+        <v>1.69762267941412</v>
       </c>
       <c r="O3">
-        <v>1.965631313715221</v>
+        <v>4.142023550315116</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.693079120368679</v>
+        <v>1.147566916431515</v>
       </c>
       <c r="C4">
-        <v>0.2524445505819273</v>
+        <v>0.1746360996950784</v>
       </c>
       <c r="D4">
-        <v>0.2311219283748756</v>
+        <v>0.5171931454736836</v>
       </c>
       <c r="E4">
-        <v>0.06416145369272908</v>
+        <v>0.1787277619588679</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.5225749454959754</v>
+        <v>1.010105835136784</v>
       </c>
       <c r="H4">
-        <v>0.4172730453856133</v>
+        <v>1.038941806148443</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.04486546712621831</v>
+        <v>0.07994477285580359</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.1951328566159134</v>
+        <v>0.3621456192304322</v>
       </c>
       <c r="M4">
-        <v>0.327914666266345</v>
+        <v>0.317233421140628</v>
       </c>
       <c r="N4">
-        <v>0.9531147693570148</v>
+        <v>1.707420632656948</v>
       </c>
       <c r="O4">
-        <v>1.928329020695941</v>
+        <v>4.152704089008267</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.625128139774887</v>
+        <v>1.128688933873775</v>
       </c>
       <c r="C5">
-        <v>0.2467541137813924</v>
+        <v>0.172702091702817</v>
       </c>
       <c r="D5">
-        <v>0.228556439646951</v>
+        <v>0.5173775142707484</v>
       </c>
       <c r="E5">
-        <v>0.06447644019727861</v>
+        <v>0.179046930732591</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.516844273699121</v>
+        <v>1.010887597981167</v>
       </c>
       <c r="H5">
-        <v>0.4163111409177844</v>
+        <v>1.040527874795089</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.04462417802726648</v>
+        <v>0.07986802785568514</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.1906399194521242</v>
+        <v>0.3614183234236634</v>
       </c>
       <c r="M5">
-        <v>0.3157496464027361</v>
+        <v>0.3141084038417929</v>
       </c>
       <c r="N5">
-        <v>0.9620852066065169</v>
+        <v>1.711557222344069</v>
       </c>
       <c r="O5">
-        <v>1.914053678493303</v>
+        <v>4.157593666401539</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.613851178950938</v>
+        <v>1.12555935983562</v>
       </c>
       <c r="C6">
-        <v>0.2458086836363549</v>
+        <v>0.1723804632471371</v>
       </c>
       <c r="D6">
-        <v>0.2281349607622332</v>
+        <v>0.5174113220027152</v>
       </c>
       <c r="E6">
-        <v>0.06452977463159115</v>
+        <v>0.1791007065361736</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.5159087340160227</v>
+        <v>1.011026336514206</v>
       </c>
       <c r="H6">
-        <v>0.4161613531053376</v>
+        <v>1.040797784434119</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.04458414680094691</v>
+        <v>0.07985529832264859</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.1898964441926481</v>
+        <v>0.3612995532438887</v>
       </c>
       <c r="M6">
-        <v>0.3137317931577002</v>
+        <v>0.3135911981850938</v>
       </c>
       <c r="N6">
-        <v>0.9635909435941521</v>
+        <v>1.712252790872917</v>
       </c>
       <c r="O6">
-        <v>1.911737880944344</v>
+        <v>4.158438025487271</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.692162276875308</v>
+        <v>1.147311980323167</v>
       </c>
       <c r="C7">
-        <v>0.2523678427630216</v>
+        <v>0.1746100497776837</v>
       </c>
       <c r="D7">
-        <v>0.2310870243744176</v>
+        <v>0.5171954179157439</v>
       </c>
       <c r="E7">
-        <v>0.0641656323802966</v>
+        <v>0.1787320142321409</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.5224965756106457</v>
+        <v>1.010115779775361</v>
       </c>
       <c r="H7">
-        <v>0.4172594026244525</v>
+        <v>1.038962757777995</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.0448622106667429</v>
+        <v>0.07994373691828294</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.1950720891583373</v>
+        <v>0.3621356768883714</v>
       </c>
       <c r="M7">
-        <v>0.3277504583107529</v>
+        <v>0.3171911621960248</v>
       </c>
       <c r="N7">
-        <v>0.9532346575712509</v>
+        <v>1.70747583759298</v>
       </c>
       <c r="O7">
-        <v>1.928132809323841</v>
+        <v>4.152767856369366</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.038795898980482</v>
+        <v>1.244033254098724</v>
       </c>
       <c r="C8">
-        <v>0.2812409252591976</v>
+        <v>0.1843769272719413</v>
       </c>
       <c r="D8">
-        <v>0.2447928339602612</v>
+        <v>0.5167061840342058</v>
       </c>
       <c r="E8">
-        <v>0.06271087447136736</v>
+        <v>0.1772180184725558</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.5539992437547028</v>
+        <v>1.007395458919149</v>
       </c>
       <c r="H8">
-        <v>0.4235945633283364</v>
+        <v>1.031815759195609</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.04609459615220146</v>
+        <v>0.08033596199221371</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.2183030441514191</v>
+        <v>0.3661146635643604</v>
       </c>
       <c r="M8">
-        <v>0.3899543791614306</v>
+        <v>0.3333224534871846</v>
       </c>
       <c r="N8">
-        <v>0.9099344546598225</v>
+        <v>1.687658743507733</v>
       </c>
       <c r="O8">
-        <v>2.008728421276032</v>
+        <v>4.132462142223005</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.72401315179809</v>
+        <v>1.436251943384605</v>
       </c>
       <c r="C9">
-        <v>0.3376830533518813</v>
+        <v>0.2032642256542658</v>
       </c>
       <c r="D9">
-        <v>0.2743387984149734</v>
+        <v>0.517406735393692</v>
       </c>
       <c r="E9">
-        <v>0.06042753838707782</v>
+        <v>0.1746537908001731</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.625557461506915</v>
+        <v>1.006727666353598</v>
       </c>
       <c r="H9">
-        <v>0.4418393718606382</v>
+        <v>1.021211218011885</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.04853402060954437</v>
+        <v>0.08111166990549634</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.2654541938425439</v>
+        <v>0.37494981231427</v>
       </c>
       <c r="M9">
-        <v>0.5135011842899715</v>
+        <v>0.3658225886349911</v>
       </c>
       <c r="N9">
-        <v>0.8341037106279003</v>
+        <v>1.653328232141455</v>
       </c>
       <c r="O9">
-        <v>2.199608036795411</v>
+        <v>4.109584364832813</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.232512819339263</v>
+        <v>1.578974954537443</v>
       </c>
       <c r="C10">
-        <v>0.3791282916817522</v>
+        <v>0.2169738051612455</v>
       </c>
       <c r="D10">
-        <v>0.2979053274668928</v>
+        <v>0.5189289051618005</v>
       </c>
       <c r="E10">
-        <v>0.05911964928887947</v>
+        <v>0.1730153793699625</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.6851475786342718</v>
+        <v>1.009086498808188</v>
       </c>
       <c r="H10">
-        <v>0.4592656579674212</v>
+        <v>1.015494862560928</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.05034403356482642</v>
+        <v>0.08168520023331638</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.3012617292443451</v>
+        <v>0.3820648546817154</v>
       </c>
       <c r="M10">
-        <v>0.6055751435413157</v>
+        <v>0.3902184490861629</v>
       </c>
       <c r="N10">
-        <v>0.7843805337134171</v>
+        <v>1.63086074058026</v>
       </c>
       <c r="O10">
-        <v>2.363086308130875</v>
+        <v>4.103104847887465</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.465361128501627</v>
+        <v>1.644218564947266</v>
       </c>
       <c r="C11">
-        <v>0.3979989121155256</v>
+        <v>0.22317340958665</v>
       </c>
       <c r="D11">
-        <v>0.3090849929271116</v>
+        <v>0.5198392444761311</v>
       </c>
       <c r="E11">
-        <v>0.05861021833179869</v>
+        <v>0.1723230846201886</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.7140304143914165</v>
+        <v>1.010779408250556</v>
       </c>
       <c r="H11">
-        <v>0.4681790805124848</v>
+        <v>1.013343982085289</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.05117228993822209</v>
+        <v>0.08194682297250822</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.3178507338574548</v>
+        <v>0.3854360384978435</v>
       </c>
       <c r="M11">
-        <v>0.6478291790257344</v>
+        <v>0.4014272071624205</v>
       </c>
       <c r="N11">
-        <v>0.7631682963297663</v>
+        <v>1.621236540773772</v>
       </c>
       <c r="O11">
-        <v>2.443269115560128</v>
+        <v>4.102400494066842</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.553791160929052</v>
+        <v>1.668969168930573</v>
       </c>
       <c r="C12">
-        <v>0.4051489973493574</v>
+        <v>0.2255156128519218</v>
       </c>
       <c r="D12">
-        <v>0.3133893205632745</v>
+        <v>0.5202152123542163</v>
       </c>
       <c r="E12">
-        <v>0.05843008165103036</v>
+        <v>0.1720685365852663</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7252451734666039</v>
+        <v>1.011509660609789</v>
       </c>
       <c r="H12">
-        <v>0.4717062261193377</v>
+        <v>1.012594060956602</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.05148671575094355</v>
+        <v>0.08204598870258906</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.3241797605282528</v>
+        <v>0.3867318483622597</v>
       </c>
       <c r="M12">
-        <v>0.6638901284731347</v>
+        <v>0.40568739882697</v>
       </c>
       <c r="N12">
-        <v>0.7553478449058986</v>
+        <v>1.617677780584984</v>
       </c>
       <c r="O12">
-        <v>2.474536998315642</v>
+        <v>4.102456306086395</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.534734216203219</v>
+        <v>1.663636738560967</v>
       </c>
       <c r="C13">
-        <v>0.403608882636604</v>
+        <v>0.2250114221726562</v>
       </c>
       <c r="D13">
-        <v>0.3124590763403319</v>
+        <v>0.520132852892317</v>
       </c>
       <c r="E13">
-        <v>0.05846830132989389</v>
+        <v>0.1721230199057917</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.7228171640221461</v>
+        <v>1.011348420437471</v>
       </c>
       <c r="H13">
-        <v>0.4709396724845334</v>
+        <v>1.012752699196199</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.05141896229755716</v>
+        <v>0.08202462750850614</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.3228145285348774</v>
+        <v>0.3864519199251646</v>
       </c>
       <c r="M13">
-        <v>0.660428315265321</v>
+        <v>0.4047691974476919</v>
       </c>
       <c r="N13">
-        <v>0.7570225196413887</v>
+        <v>1.618440411683856</v>
       </c>
       <c r="O13">
-        <v>2.467761541282442</v>
+        <v>4.102429941684647</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.472630988151707</v>
+        <v>1.646253933439652</v>
       </c>
       <c r="C14">
-        <v>0.398587059361148</v>
+        <v>0.223366214126969</v>
       </c>
       <c r="D14">
-        <v>0.3094376643015551</v>
+        <v>0.5198695499622659</v>
       </c>
       <c r="E14">
-        <v>0.0585951395537716</v>
+        <v>0.1723019903978802</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.7149473659234502</v>
+        <v>1.010837698890313</v>
       </c>
       <c r="H14">
-        <v>0.4684661581414105</v>
+        <v>1.013280991927843</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.05119814174333115</v>
+        <v>0.08195497954597997</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.3183704582100688</v>
+        <v>0.3855422611728017</v>
       </c>
       <c r="M14">
-        <v>0.6491492721742347</v>
+        <v>0.4017773830674258</v>
       </c>
       <c r="N14">
-        <v>0.7625205924335603</v>
+        <v>1.620942041795701</v>
       </c>
       <c r="O14">
-        <v>2.445823010503261</v>
+        <v>4.102398621867934</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.434625332802682</v>
+        <v>1.635612183720241</v>
       </c>
       <c r="C15">
-        <v>0.3955116479607454</v>
+        <v>0.2223577625213125</v>
       </c>
       <c r="D15">
-        <v>0.3075963346695545</v>
+        <v>0.5197123352597259</v>
       </c>
       <c r="E15">
-        <v>0.05867450971705068</v>
+        <v>0.1724126054234514</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.7101637062256998</v>
+        <v>1.010536483051624</v>
       </c>
       <c r="H15">
-        <v>0.466971140981542</v>
+        <v>1.013612993425596</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.05106298734594716</v>
+        <v>0.0819123302528908</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.3156545980983623</v>
+        <v>0.3849875675970509</v>
       </c>
       <c r="M15">
-        <v>0.6422486030093282</v>
+        <v>0.3999468439134048</v>
       </c>
       <c r="N15">
-        <v>0.7659162532921044</v>
+        <v>1.622485523955966</v>
       </c>
       <c r="O15">
-        <v>2.432504908602681</v>
+        <v>4.102421440160896</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.217329383535457</v>
+        <v>1.574717406534546</v>
       </c>
       <c r="C16">
-        <v>0.3778955399105826</v>
+        <v>0.216567890995492</v>
       </c>
       <c r="D16">
-        <v>0.2971843527361955</v>
+        <v>0.5188737891929804</v>
       </c>
       <c r="E16">
-        <v>0.05915470283462909</v>
+        <v>0.1730616881054647</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.6832975986798715</v>
+        <v>1.008988340618544</v>
       </c>
       <c r="H16">
-        <v>0.4587038289652412</v>
+        <v>1.015644467158779</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.05029000997414457</v>
+        <v>0.08166811632631266</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.3001839700280868</v>
+        <v>0.3818472357853295</v>
       </c>
       <c r="M16">
-        <v>0.6028217727002669</v>
+        <v>0.3894881394298011</v>
       </c>
       <c r="N16">
-        <v>0.7857959427505037</v>
+        <v>1.631501701523455</v>
       </c>
       <c r="O16">
-        <v>2.357968914052293</v>
+        <v>4.103196015182476</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.084441481731176</v>
+        <v>1.537440868951307</v>
       </c>
       <c r="C17">
-        <v>0.3670941727445154</v>
+        <v>0.2130064292225029</v>
       </c>
       <c r="D17">
-        <v>0.2909178556795524</v>
+        <v>0.5184151120268581</v>
       </c>
       <c r="E17">
-        <v>0.05947152142315915</v>
+        <v>0.1734734491664778</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.6672860553518518</v>
+        <v>1.008197402323376</v>
       </c>
       <c r="H17">
-        <v>0.4538915827602352</v>
+        <v>1.017005793275899</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.0498171174995683</v>
+        <v>0.08151847737332574</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.2907728249166723</v>
+        <v>0.3799551057996808</v>
       </c>
       <c r="M17">
-        <v>0.5787341770352157</v>
+        <v>0.3831002846279574</v>
       </c>
       <c r="N17">
-        <v>0.7983586667355311</v>
+        <v>1.6371855487129</v>
       </c>
       <c r="O17">
-        <v>2.313780019832933</v>
+        <v>4.104245706910007</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.008149535245536</v>
+        <v>1.51603042967173</v>
       </c>
       <c r="C18">
-        <v>0.360882995975075</v>
+        <v>0.2109545007752445</v>
       </c>
       <c r="D18">
-        <v>0.2873564418622152</v>
+        <v>0.5181718079629292</v>
       </c>
       <c r="E18">
-        <v>0.05966176795137201</v>
+        <v>0.1737152753379458</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.6582422912933339</v>
+        <v>1.007800817275069</v>
       </c>
       <c r="H18">
-        <v>0.4512158837457036</v>
+        <v>1.017831106964167</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.04954557546940208</v>
+        <v>0.08143247738596671</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.2853877627820367</v>
+        <v>0.3788794715015911</v>
       </c>
       <c r="M18">
-        <v>0.5649139125247373</v>
+        <v>0.3794366200281729</v>
       </c>
       <c r="N18">
-        <v>0.8057162293409377</v>
+        <v>1.640510883174571</v>
       </c>
       <c r="O18">
-        <v>2.288906790713213</v>
+        <v>4.105060605588193</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.982341683945435</v>
+        <v>1.508786427564019</v>
       </c>
       <c r="C19">
-        <v>0.3587802022760656</v>
+        <v>0.2102591613447657</v>
       </c>
       <c r="D19">
-        <v>0.286157836744934</v>
+        <v>0.5180929556198919</v>
       </c>
       <c r="E19">
-        <v>0.05972754576991512</v>
+        <v>0.1737980114186382</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.6552080271411853</v>
+        <v>1.007676559155357</v>
       </c>
       <c r="H19">
-        <v>0.4503254755488797</v>
+        <v>1.018117813754301</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.04945371146088817</v>
+        <v>0.08140337128009989</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.2835691617170255</v>
+        <v>0.3785174599801735</v>
       </c>
       <c r="M19">
-        <v>0.5602402863793898</v>
+        <v>0.3781979712133676</v>
       </c>
       <c r="N19">
-        <v>0.8082297241718948</v>
+        <v>1.641646427047483</v>
       </c>
       <c r="O19">
-        <v>2.280576414287452</v>
+        <v>4.105372781505963</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.098572715609976</v>
+        <v>1.541405921878777</v>
       </c>
       <c r="C20">
-        <v>0.3682438309484724</v>
+        <v>0.21338591302856</v>
       </c>
       <c r="D20">
-        <v>0.2915804601988157</v>
+        <v>0.5184618164390855</v>
       </c>
       <c r="E20">
-        <v>0.05943696207367033</v>
+        <v>0.1734290999529655</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.6689732110885984</v>
+        <v>1.008275560549762</v>
       </c>
       <c r="H20">
-        <v>0.4543942441589479</v>
+        <v>1.016856498855788</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.04986741023314423</v>
+        <v>0.0815343996823259</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.2917717335712098</v>
+        <v>0.3801552160148276</v>
       </c>
       <c r="M20">
-        <v>0.5812947441694547</v>
+        <v>0.3837792020622857</v>
       </c>
       <c r="N20">
-        <v>0.7970076317344095</v>
+        <v>1.636574683942115</v>
       </c>
       <c r="O20">
-        <v>2.318427320778653</v>
+        <v>4.104112113097074</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.490864982752271</v>
+        <v>1.651358495215504</v>
       </c>
       <c r="C21">
-        <v>0.4000619621286603</v>
+        <v>0.2238496006901869</v>
       </c>
       <c r="D21">
-        <v>0.3103231640003372</v>
+        <v>0.5199460412386543</v>
       </c>
       <c r="E21">
-        <v>0.05855753349320914</v>
+        <v>0.172249216049785</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.7172512015060306</v>
+        <v>1.010985289369145</v>
       </c>
       <c r="H21">
-        <v>0.4691884853382504</v>
+        <v>1.013124067670091</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.05126298014216246</v>
+        <v>0.08197543433567134</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.3196744770041562</v>
+        <v>0.3858089295041225</v>
       </c>
       <c r="M21">
-        <v>0.6524605050881291</v>
+        <v>0.4026557281801715</v>
       </c>
       <c r="N21">
-        <v>0.7608998356127827</v>
+        <v>1.620204926418516</v>
       </c>
       <c r="O21">
-        <v>2.45224177720533</v>
+        <v>4.102399068021043</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.748757970784823</v>
+        <v>1.723476175814312</v>
       </c>
       <c r="C22">
-        <v>0.4208823038748335</v>
+        <v>0.2306563806857866</v>
       </c>
       <c r="D22">
-        <v>0.3229879295789999</v>
+        <v>0.5210981287958418</v>
       </c>
       <c r="E22">
-        <v>0.05805747278007267</v>
+        <v>0.1715224371101822</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.7504323419725552</v>
+        <v>1.013276110163787</v>
       </c>
       <c r="H22">
-        <v>0.4797475079012088</v>
+        <v>1.011061043215577</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.05217967450477801</v>
+        <v>0.0822642249301353</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.3381873124455268</v>
+        <v>0.3896159030430226</v>
       </c>
       <c r="M22">
-        <v>0.6993264322327803</v>
+        <v>0.4150838855066681</v>
       </c>
       <c r="N22">
-        <v>0.7385429840970019</v>
+        <v>1.610005941732403</v>
       </c>
       <c r="O22">
-        <v>2.545003888246413</v>
+        <v>4.103159461126154</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.61096525730494</v>
+        <v>1.68496256013151</v>
       </c>
       <c r="C23">
-        <v>0.409767156296283</v>
+        <v>0.2270264336401056</v>
       </c>
       <c r="D23">
-        <v>0.316188829349386</v>
+        <v>0.5204666094930417</v>
       </c>
       <c r="E23">
-        <v>0.05831736547199462</v>
+        <v>0.171906280619206</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.7325661640747967</v>
+        <v>1.012005873244533</v>
       </c>
       <c r="H23">
-        <v>0.4740270117632122</v>
+        <v>1.012127706369043</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.05168996636736622</v>
+        <v>0.08211004462289395</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.3282799419093436</v>
+        <v>0.3875738486876088</v>
       </c>
       <c r="M23">
-        <v>0.6742782075281823</v>
+        <v>0.4084424856746409</v>
       </c>
       <c r="N23">
-        <v>0.750358224329041</v>
+        <v>1.615403631532324</v>
       </c>
       <c r="O23">
-        <v>2.4949856732662</v>
+        <v>4.102581619746701</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.092183653901088</v>
+        <v>1.539613257982296</v>
       </c>
       <c r="C24">
-        <v>0.3677240747379358</v>
+        <v>0.2132143620846421</v>
       </c>
       <c r="D24">
-        <v>0.2912807684810588</v>
+        <v>0.5184406378389212</v>
       </c>
       <c r="E24">
-        <v>0.0594525611511223</v>
+        <v>0.1734491343475391</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.6682099466500944</v>
+        <v>1.008240044129096</v>
       </c>
       <c r="H24">
-        <v>0.4541667084777856</v>
+        <v>1.016923861944008</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.04984467186608654</v>
+        <v>0.08152720111449341</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.2913200477450602</v>
+        <v>0.3800647082489803</v>
       </c>
       <c r="M24">
-        <v>0.5801370250438396</v>
+        <v>0.3834722360636178</v>
       </c>
       <c r="N24">
-        <v>0.7976180146336418</v>
+        <v>1.636850676432104</v>
       </c>
       <c r="O24">
-        <v>2.316324625439364</v>
+        <v>4.104171852302244</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.537886067496061</v>
+        <v>1.383984417438228</v>
       </c>
       <c r="C25">
-        <v>0.3224245776775234</v>
+        <v>0.198183660178529</v>
       </c>
       <c r="D25">
-        <v>0.2660369911195772</v>
+        <v>0.5170399723173915</v>
       </c>
       <c r="E25">
-        <v>0.06098202919737972</v>
+        <v>0.1753042791871344</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.605047158624501</v>
+        <v>1.006408249353399</v>
       </c>
       <c r="H25">
-        <v>0.4362334330145501</v>
+        <v>1.023715350942155</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.04787127591476192</v>
+        <v>0.08090115778746565</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.2525085981321098</v>
+        <v>0.3724497180534456</v>
       </c>
       <c r="M25">
-        <v>0.479876231670616</v>
+        <v>0.3569387256756187</v>
       </c>
       <c r="N25">
-        <v>0.8536006813039094</v>
+        <v>1.662131230317648</v>
       </c>
       <c r="O25">
-        <v>2.144134646807117</v>
+        <v>4.11395961754215</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_131/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_131/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.270414358554376</v>
+        <v>2.133026081575451</v>
       </c>
       <c r="C2">
-        <v>0.1870054823450715</v>
+        <v>0.2890491044142323</v>
       </c>
       <c r="D2">
-        <v>0.5166861284057234</v>
+        <v>0.2486789076131544</v>
       </c>
       <c r="E2">
-        <v>0.1768352350388191</v>
+        <v>0.06235445181989263</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>1.006974040763296</v>
+        <v>0.5631600470595544</v>
       </c>
       <c r="H2">
-        <v>1.030110265252901</v>
+        <v>0.4256885351210968</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.08044269317985986</v>
+        <v>0.04642991517281914</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.3672628403549325</v>
+        <v>0.2246987013334234</v>
       </c>
       <c r="M2">
-        <v>0.3377522682235536</v>
+        <v>0.4069022685906774</v>
       </c>
       <c r="N2">
-        <v>1.682596187459559</v>
+        <v>0.8988009719749783</v>
       </c>
       <c r="O2">
-        <v>4.128106805779993</v>
+        <v>2.03267503688491</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.194097904004337</v>
+        <v>1.860106866716279</v>
       </c>
       <c r="C3">
-        <v>0.1793620625467014</v>
+        <v>0.2663878897640188</v>
       </c>
       <c r="D3">
-        <v>0.5168703469153542</v>
+        <v>0.2376048342213153</v>
       </c>
       <c r="E3">
-        <v>0.1779761309630246</v>
+        <v>0.06343077170864575</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>1.008550174120145</v>
+        <v>0.5373063043912367</v>
       </c>
       <c r="H3">
-        <v>1.035315464045851</v>
+        <v>0.42004489889284</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.08013365584731602</v>
+        <v>0.04545903636036996</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.36401133398887</v>
+        <v>0.2062658418211285</v>
       </c>
       <c r="M3">
-        <v>0.3249708236499345</v>
+        <v>0.3578591548177528</v>
       </c>
       <c r="N3">
-        <v>1.69762267941412</v>
+        <v>0.9317677457981581</v>
       </c>
       <c r="O3">
-        <v>4.142023550315116</v>
+        <v>1.965631313715221</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.147566916431515</v>
+        <v>1.693079120368623</v>
       </c>
       <c r="C4">
-        <v>0.1746360996950784</v>
+        <v>0.2524445505819983</v>
       </c>
       <c r="D4">
-        <v>0.5171931454736836</v>
+        <v>0.2311219283750034</v>
       </c>
       <c r="E4">
-        <v>0.1787277619588679</v>
+        <v>0.06416145369271931</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>1.010105835136784</v>
+        <v>0.5225749454960464</v>
       </c>
       <c r="H4">
-        <v>1.038941806148443</v>
+        <v>0.4172730453854854</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.07994477285580359</v>
+        <v>0.04486546712617923</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.3621456192304322</v>
+        <v>0.1951328566158637</v>
       </c>
       <c r="M4">
-        <v>0.317233421140628</v>
+        <v>0.3279146662663308</v>
       </c>
       <c r="N4">
-        <v>1.707420632656948</v>
+        <v>0.9531147693569579</v>
       </c>
       <c r="O4">
-        <v>4.152704089008267</v>
+        <v>1.928329020695884</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.128688933873775</v>
+        <v>1.625128139774887</v>
       </c>
       <c r="C5">
-        <v>0.172702091702817</v>
+        <v>0.2467541137816198</v>
       </c>
       <c r="D5">
-        <v>0.5173775142707484</v>
+        <v>0.2285564396468942</v>
       </c>
       <c r="E5">
-        <v>0.179046930732591</v>
+        <v>0.06447644019727505</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>1.010887597981167</v>
+        <v>0.5168442736992347</v>
       </c>
       <c r="H5">
-        <v>1.040527874795089</v>
+        <v>0.4163111409178839</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.07986802785568514</v>
+        <v>0.04462417802725938</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.3614183234236634</v>
+        <v>0.1906399194521171</v>
       </c>
       <c r="M5">
-        <v>0.3141084038417929</v>
+        <v>0.315749646402729</v>
       </c>
       <c r="N5">
-        <v>1.711557222344069</v>
+        <v>0.9620852066065169</v>
       </c>
       <c r="O5">
-        <v>4.157593666401539</v>
+        <v>1.914053678493246</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.12555935983562</v>
+        <v>1.613851178950938</v>
       </c>
       <c r="C6">
-        <v>0.1723804632471371</v>
+        <v>0.2458086836362554</v>
       </c>
       <c r="D6">
-        <v>0.5174113220027152</v>
+        <v>0.2281349607620484</v>
       </c>
       <c r="E6">
-        <v>0.1791007065361736</v>
+        <v>0.06452977463158849</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>1.011026336514206</v>
+        <v>0.5159087340160653</v>
       </c>
       <c r="H6">
-        <v>1.040797784434119</v>
+        <v>0.4161613531053518</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.07985529832264859</v>
+        <v>0.04458414680090428</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.3612995532438887</v>
+        <v>0.1898964441928186</v>
       </c>
       <c r="M6">
-        <v>0.3135911981850938</v>
+        <v>0.3137317931577073</v>
       </c>
       <c r="N6">
-        <v>1.712252790872917</v>
+        <v>0.9635909435941521</v>
       </c>
       <c r="O6">
-        <v>4.158438025487271</v>
+        <v>1.911737880944344</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.147311980323167</v>
+        <v>1.692162276875138</v>
       </c>
       <c r="C7">
-        <v>0.1746100497776837</v>
+        <v>0.2523678427630358</v>
       </c>
       <c r="D7">
-        <v>0.5171954179157439</v>
+        <v>0.2310870243745313</v>
       </c>
       <c r="E7">
-        <v>0.1787320142321409</v>
+        <v>0.06416563238033746</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>1.010115779775361</v>
+        <v>0.5224965756106315</v>
       </c>
       <c r="H7">
-        <v>1.038962757777995</v>
+        <v>0.4172594026244383</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.07994373691828294</v>
+        <v>0.04486221066656881</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.3621356768883714</v>
+        <v>0.1950720891584012</v>
       </c>
       <c r="M7">
-        <v>0.3171911621960248</v>
+        <v>0.32775045831076</v>
       </c>
       <c r="N7">
-        <v>1.70747583759298</v>
+        <v>0.9532346575713007</v>
       </c>
       <c r="O7">
-        <v>4.152767856369366</v>
+        <v>1.928132809323671</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.244033254098724</v>
+        <v>2.038795898980538</v>
       </c>
       <c r="C8">
-        <v>0.1843769272719413</v>
+        <v>0.2812409252589561</v>
       </c>
       <c r="D8">
-        <v>0.5167061840342058</v>
+        <v>0.2447928339602754</v>
       </c>
       <c r="E8">
-        <v>0.1772180184725558</v>
+        <v>0.06271087447137003</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>1.007395458919149</v>
+        <v>0.5539992437547454</v>
       </c>
       <c r="H8">
-        <v>1.031815759195609</v>
+        <v>0.4235945633283364</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.08033596199221371</v>
+        <v>0.04609459615214284</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.3661146635643604</v>
+        <v>0.2183030441515186</v>
       </c>
       <c r="M8">
-        <v>0.3333224534871846</v>
+        <v>0.3899543791614164</v>
       </c>
       <c r="N8">
-        <v>1.687658743507733</v>
+        <v>0.9099344546598367</v>
       </c>
       <c r="O8">
-        <v>4.132462142223005</v>
+        <v>2.008728421276203</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.436251943384605</v>
+        <v>2.724013151797976</v>
       </c>
       <c r="C9">
-        <v>0.2032642256542658</v>
+        <v>0.3376830533518671</v>
       </c>
       <c r="D9">
-        <v>0.517406735393692</v>
+        <v>0.2743387984150161</v>
       </c>
       <c r="E9">
-        <v>0.1746537908001731</v>
+        <v>0.06042753838707604</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>1.006727666353598</v>
+        <v>0.625557461506844</v>
       </c>
       <c r="H9">
-        <v>1.021211218011885</v>
+        <v>0.4418393718606239</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.08111166990549634</v>
+        <v>0.04853402060954792</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.37494981231427</v>
+        <v>0.2654541938424586</v>
       </c>
       <c r="M9">
-        <v>0.3658225886349911</v>
+        <v>0.5135011842899502</v>
       </c>
       <c r="N9">
-        <v>1.653328232141455</v>
+        <v>0.8341037106279003</v>
       </c>
       <c r="O9">
-        <v>4.109584364832813</v>
+        <v>2.199608036795382</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.578974954537443</v>
+        <v>3.23251281933932</v>
       </c>
       <c r="C10">
-        <v>0.2169738051612455</v>
+        <v>0.3791282916817238</v>
       </c>
       <c r="D10">
-        <v>0.5189289051618005</v>
+        <v>0.2979053274668502</v>
       </c>
       <c r="E10">
-        <v>0.1730153793699625</v>
+        <v>0.05911964928887947</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>1.009086498808188</v>
+        <v>0.685147578634286</v>
       </c>
       <c r="H10">
-        <v>1.015494862560928</v>
+        <v>0.4592656579674355</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.08168520023331638</v>
+        <v>0.05034403356487616</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.3820648546817154</v>
+        <v>0.3012617292443451</v>
       </c>
       <c r="M10">
-        <v>0.3902184490861629</v>
+        <v>0.6055751435413157</v>
       </c>
       <c r="N10">
-        <v>1.63086074058026</v>
+        <v>0.7843805337134171</v>
       </c>
       <c r="O10">
-        <v>4.103104847887465</v>
+        <v>2.363086308130875</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.644218564947266</v>
+        <v>3.46536112850174</v>
       </c>
       <c r="C11">
-        <v>0.22317340958665</v>
+        <v>0.3979989121153835</v>
       </c>
       <c r="D11">
-        <v>0.5198392444761311</v>
+        <v>0.3090849929269126</v>
       </c>
       <c r="E11">
-        <v>0.1723230846201886</v>
+        <v>0.05861021833180047</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>1.010779408250556</v>
+        <v>0.7140304143914022</v>
       </c>
       <c r="H11">
-        <v>1.013343982085289</v>
+        <v>0.4681790805124848</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.08194682297250822</v>
+        <v>0.05117228993826473</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.3854360384978435</v>
+        <v>0.317850733857469</v>
       </c>
       <c r="M11">
-        <v>0.4014272071624205</v>
+        <v>0.6478291790257416</v>
       </c>
       <c r="N11">
-        <v>1.621236540773772</v>
+        <v>0.7631682963297806</v>
       </c>
       <c r="O11">
-        <v>4.102400494066842</v>
+        <v>2.443269115560128</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.668969168930573</v>
+        <v>3.553791160928881</v>
       </c>
       <c r="C12">
-        <v>0.2255156128519218</v>
+        <v>0.4051489973490163</v>
       </c>
       <c r="D12">
-        <v>0.5202152123542163</v>
+        <v>0.3133893205631466</v>
       </c>
       <c r="E12">
-        <v>0.1720685365852663</v>
+        <v>0.05843008165104813</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>1.011509660609789</v>
+        <v>0.7252451734666749</v>
       </c>
       <c r="H12">
-        <v>1.012594060956602</v>
+        <v>0.4717062261193377</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.08204598870258906</v>
+        <v>0.05148671575090091</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.3867318483622597</v>
+        <v>0.3241797605282954</v>
       </c>
       <c r="M12">
-        <v>0.40568739882697</v>
+        <v>0.6638901284731489</v>
       </c>
       <c r="N12">
-        <v>1.617677780584984</v>
+        <v>0.7553478449059483</v>
       </c>
       <c r="O12">
-        <v>4.102456306086395</v>
+        <v>2.474536998315614</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.663636738560967</v>
+        <v>3.534734216203503</v>
       </c>
       <c r="C13">
-        <v>0.2250114221726562</v>
+        <v>0.403608882636604</v>
       </c>
       <c r="D13">
-        <v>0.520132852892317</v>
+        <v>0.3124590763405735</v>
       </c>
       <c r="E13">
-        <v>0.1721230199057917</v>
+        <v>0.05846830132989389</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>1.011348420437471</v>
+        <v>0.722817164022203</v>
       </c>
       <c r="H13">
-        <v>1.012752699196199</v>
+        <v>0.4709396724845334</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.08202462750850614</v>
+        <v>0.05141896229740794</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.3864519199251646</v>
+        <v>0.3228145285348489</v>
       </c>
       <c r="M13">
-        <v>0.4047691974476919</v>
+        <v>0.6604283152653139</v>
       </c>
       <c r="N13">
-        <v>1.618440411683856</v>
+        <v>0.7570225196414668</v>
       </c>
       <c r="O13">
-        <v>4.102429941684647</v>
+        <v>2.467761541282442</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.646253933439652</v>
+        <v>3.472630988151764</v>
       </c>
       <c r="C14">
-        <v>0.223366214126969</v>
+        <v>0.3985870593614038</v>
       </c>
       <c r="D14">
-        <v>0.5198695499622659</v>
+        <v>0.3094376643014556</v>
       </c>
       <c r="E14">
-        <v>0.1723019903978802</v>
+        <v>0.05859513955377338</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>1.010837698890313</v>
+        <v>0.7149473659234644</v>
       </c>
       <c r="H14">
-        <v>1.013280991927843</v>
+        <v>0.4684661581414105</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.08195497954597997</v>
+        <v>0.05119814174338089</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.3855422611728017</v>
+        <v>0.318370458210012</v>
       </c>
       <c r="M14">
-        <v>0.4017773830674258</v>
+        <v>0.6491492721742489</v>
       </c>
       <c r="N14">
-        <v>1.620942041795701</v>
+        <v>0.7625205924335603</v>
       </c>
       <c r="O14">
-        <v>4.102398621867934</v>
+        <v>2.445823010503233</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.635612183720241</v>
+        <v>3.434625332802568</v>
       </c>
       <c r="C15">
-        <v>0.2223577625213125</v>
+        <v>0.3955116479608591</v>
       </c>
       <c r="D15">
-        <v>0.5197123352597259</v>
+        <v>0.3075963346695829</v>
       </c>
       <c r="E15">
-        <v>0.1724126054234514</v>
+        <v>0.05867450971707022</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>1.010536483051624</v>
+        <v>0.7101637062256856</v>
       </c>
       <c r="H15">
-        <v>1.013612993425596</v>
+        <v>0.466971140981542</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.0819123302528908</v>
+        <v>0.05106298734594006</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.3849875675970509</v>
+        <v>0.3156545980983623</v>
       </c>
       <c r="M15">
-        <v>0.3999468439134048</v>
+        <v>0.6422486030093495</v>
       </c>
       <c r="N15">
-        <v>1.622485523955966</v>
+        <v>0.7659162532921115</v>
       </c>
       <c r="O15">
-        <v>4.102421440160896</v>
+        <v>2.432504908602596</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.574717406534546</v>
+        <v>3.2173293835354</v>
       </c>
       <c r="C16">
-        <v>0.216567890995492</v>
+        <v>0.3778955399104689</v>
       </c>
       <c r="D16">
-        <v>0.5188737891929804</v>
+        <v>0.2971843527362239</v>
       </c>
       <c r="E16">
-        <v>0.1730616881054647</v>
+        <v>0.05915470283462909</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>1.008988340618544</v>
+        <v>0.6832975986798431</v>
       </c>
       <c r="H16">
-        <v>1.015644467158779</v>
+        <v>0.4587038289651275</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.08166811632631266</v>
+        <v>0.05029000997421207</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.3818472357853295</v>
+        <v>0.3001839700280442</v>
       </c>
       <c r="M16">
-        <v>0.3894881394298011</v>
+        <v>0.6028217727003096</v>
       </c>
       <c r="N16">
-        <v>1.631501701523455</v>
+        <v>0.7857959427505605</v>
       </c>
       <c r="O16">
-        <v>4.103196015182476</v>
+        <v>2.357968914052321</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.537440868951307</v>
+        <v>3.084441481731005</v>
       </c>
       <c r="C17">
-        <v>0.2130064292225029</v>
+        <v>0.3670941727447143</v>
       </c>
       <c r="D17">
-        <v>0.5184151120268581</v>
+        <v>0.2909178556795524</v>
       </c>
       <c r="E17">
-        <v>0.1734734491664778</v>
+        <v>0.05947152142317336</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>1.008197402323376</v>
+        <v>0.6672860553518944</v>
       </c>
       <c r="H17">
-        <v>1.017005793275899</v>
+        <v>0.453891582760221</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.08151847737332574</v>
+        <v>0.04981711749967843</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.3799551057996808</v>
+        <v>0.2907728249167292</v>
       </c>
       <c r="M17">
-        <v>0.3831002846279574</v>
+        <v>0.5787341770352086</v>
       </c>
       <c r="N17">
-        <v>1.6371855487129</v>
+        <v>0.7983586667355382</v>
       </c>
       <c r="O17">
-        <v>4.104245706910007</v>
+        <v>2.313780019832876</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.51603042967173</v>
+        <v>3.008149535245309</v>
       </c>
       <c r="C18">
-        <v>0.2109545007752445</v>
+        <v>0.3608829959749755</v>
       </c>
       <c r="D18">
-        <v>0.5181718079629292</v>
+        <v>0.2873564418623573</v>
       </c>
       <c r="E18">
-        <v>0.1737152753379458</v>
+        <v>0.05966176795137024</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>1.007800817275069</v>
+        <v>0.6582422912933623</v>
       </c>
       <c r="H18">
-        <v>1.017831106964167</v>
+        <v>0.4512158837458315</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.08143247738596671</v>
+        <v>0.04954557546939853</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.3788794715015911</v>
+        <v>0.2853877627820935</v>
       </c>
       <c r="M18">
-        <v>0.3794366200281729</v>
+        <v>0.5649139125247373</v>
       </c>
       <c r="N18">
-        <v>1.640510883174571</v>
+        <v>0.8057162293409377</v>
       </c>
       <c r="O18">
-        <v>4.105060605588193</v>
+        <v>2.288906790713213</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.508786427564019</v>
+        <v>2.982341683945435</v>
       </c>
       <c r="C19">
-        <v>0.2102591613447657</v>
+        <v>0.3587802022759377</v>
       </c>
       <c r="D19">
-        <v>0.5180929556198919</v>
+        <v>0.2861578367449482</v>
       </c>
       <c r="E19">
-        <v>0.1737980114186382</v>
+        <v>0.0597275457698867</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>1.007676559155357</v>
+        <v>0.6552080271411995</v>
       </c>
       <c r="H19">
-        <v>1.018117813754301</v>
+        <v>0.450325475548766</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.08140337128009989</v>
+        <v>0.04945371146083133</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.3785174599801735</v>
+        <v>0.2835691617170113</v>
       </c>
       <c r="M19">
-        <v>0.3781979712133676</v>
+        <v>0.5602402863793898</v>
       </c>
       <c r="N19">
-        <v>1.641646427047483</v>
+        <v>0.8082297241718805</v>
       </c>
       <c r="O19">
-        <v>4.105372781505963</v>
+        <v>2.280576414287339</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.541405921878777</v>
+        <v>3.098572715610146</v>
       </c>
       <c r="C20">
-        <v>0.21338591302856</v>
+        <v>0.3682438309485008</v>
       </c>
       <c r="D20">
-        <v>0.5184618164390855</v>
+        <v>0.2915804601986594</v>
       </c>
       <c r="E20">
-        <v>0.1734290999529655</v>
+        <v>0.05943696207367033</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>1.008275560549762</v>
+        <v>0.6689732110885984</v>
       </c>
       <c r="H20">
-        <v>1.016856498855788</v>
+        <v>0.4543942441589479</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.0815343996823259</v>
+        <v>0.04986741023316554</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.3801552160148276</v>
+        <v>0.2917717335711529</v>
       </c>
       <c r="M20">
-        <v>0.3837792020622857</v>
+        <v>0.5812947441694618</v>
       </c>
       <c r="N20">
-        <v>1.636574683942115</v>
+        <v>0.7970076317344237</v>
       </c>
       <c r="O20">
-        <v>4.104112113097074</v>
+        <v>2.318427320778682</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.651358495215504</v>
+        <v>3.490864982752385</v>
       </c>
       <c r="C21">
-        <v>0.2238496006901869</v>
+        <v>0.400061962128774</v>
       </c>
       <c r="D21">
-        <v>0.5199460412386543</v>
+        <v>0.3103231640003372</v>
       </c>
       <c r="E21">
-        <v>0.172249216049785</v>
+        <v>0.05855753349319137</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>1.010985289369145</v>
+        <v>0.7172512015060164</v>
       </c>
       <c r="H21">
-        <v>1.013124067670091</v>
+        <v>0.4691884853383783</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.08197543433567134</v>
+        <v>0.0512629801421447</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.3858089295041225</v>
+        <v>0.3196744770041562</v>
       </c>
       <c r="M21">
-        <v>0.4026557281801715</v>
+        <v>0.6524605050881149</v>
       </c>
       <c r="N21">
-        <v>1.620204926418516</v>
+        <v>0.7608998356128396</v>
       </c>
       <c r="O21">
-        <v>4.102399068021043</v>
+        <v>2.452241777205273</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.723476175814312</v>
+        <v>3.748757970784652</v>
       </c>
       <c r="C22">
-        <v>0.2306563806857866</v>
+        <v>0.4208823038746345</v>
       </c>
       <c r="D22">
-        <v>0.5210981287958418</v>
+        <v>0.3229879295788862</v>
       </c>
       <c r="E22">
-        <v>0.1715224371101822</v>
+        <v>0.05805747278005846</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>1.013276110163787</v>
+        <v>0.7504323419725552</v>
       </c>
       <c r="H22">
-        <v>1.011061043215577</v>
+        <v>0.4797475079011946</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.0822642249301353</v>
+        <v>0.05217967450473893</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.3896159030430226</v>
+        <v>0.338187312445541</v>
       </c>
       <c r="M22">
-        <v>0.4150838855066681</v>
+        <v>0.6993264322327803</v>
       </c>
       <c r="N22">
-        <v>1.610005941732403</v>
+        <v>0.738542984097009</v>
       </c>
       <c r="O22">
-        <v>4.103159461126154</v>
+        <v>2.545003888246413</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.68496256013151</v>
+        <v>3.61096525730494</v>
       </c>
       <c r="C23">
-        <v>0.2270264336401056</v>
+        <v>0.4097671562960272</v>
       </c>
       <c r="D23">
-        <v>0.5204666094930417</v>
+        <v>0.3161888293494002</v>
       </c>
       <c r="E23">
-        <v>0.171906280619206</v>
+        <v>0.05831736547199107</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>1.012005873244533</v>
+        <v>0.7325661640747967</v>
       </c>
       <c r="H23">
-        <v>1.012127706369043</v>
+        <v>0.4740270117630985</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.08211004462289395</v>
+        <v>0.05168996636741952</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.3875738486876088</v>
+        <v>0.3282799419092868</v>
       </c>
       <c r="M23">
-        <v>0.4084424856746409</v>
+        <v>0.6742782075281823</v>
       </c>
       <c r="N23">
-        <v>1.615403631532324</v>
+        <v>0.7503582243290836</v>
       </c>
       <c r="O23">
-        <v>4.102581619746701</v>
+        <v>2.494985673266314</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.539613257982296</v>
+        <v>3.092183653900975</v>
       </c>
       <c r="C24">
-        <v>0.2132143620846421</v>
+        <v>0.3677240747379926</v>
       </c>
       <c r="D24">
-        <v>0.5184406378389212</v>
+        <v>0.291280768481144</v>
       </c>
       <c r="E24">
-        <v>0.1734491343475391</v>
+        <v>0.05945256115110453</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>1.008240044129096</v>
+        <v>0.6682099466501796</v>
       </c>
       <c r="H24">
-        <v>1.016923861944008</v>
+        <v>0.4541667084777998</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.08152720111449341</v>
+        <v>0.0498446718660297</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.3800647082489803</v>
+        <v>0.2913200477449607</v>
       </c>
       <c r="M24">
-        <v>0.3834722360636178</v>
+        <v>0.5801370250438396</v>
       </c>
       <c r="N24">
-        <v>1.636850676432104</v>
+        <v>0.7976180146337057</v>
       </c>
       <c r="O24">
-        <v>4.104171852302244</v>
+        <v>2.316324625439336</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.383984417438228</v>
+        <v>2.537886067496174</v>
       </c>
       <c r="C25">
-        <v>0.198183660178529</v>
+        <v>0.3224245776770545</v>
       </c>
       <c r="D25">
-        <v>0.5170399723173915</v>
+        <v>0.2660369911194636</v>
       </c>
       <c r="E25">
-        <v>0.1753042791871344</v>
+        <v>0.06098202919738149</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>1.006408249353399</v>
+        <v>0.6050471586245152</v>
       </c>
       <c r="H25">
-        <v>1.023715350942155</v>
+        <v>0.4362334330144364</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.08090115778746565</v>
+        <v>0.04787127591470863</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.3724497180534456</v>
+        <v>0.2525085981320956</v>
       </c>
       <c r="M25">
-        <v>0.3569387256756187</v>
+        <v>0.4798762316705947</v>
       </c>
       <c r="N25">
-        <v>1.662131230317648</v>
+        <v>0.8536006813039663</v>
       </c>
       <c r="O25">
-        <v>4.11395961754215</v>
+        <v>2.144134646807174</v>
       </c>
     </row>
   </sheetData>
